--- a/Souq/src/price/Souq/excel_28_jarras,_copos_e_xicaras.xlsx
+++ b/Souq/src/price/Souq/excel_28_jarras,_copos_e_xicaras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,294 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Jarras, Copos e Xícaras</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html?p=1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TACA DE VIDRO FANY</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/taca-de-vidro-fany-01-03-14-128-003.html</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>59,00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>28,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Jarras, Copos e Xícaras</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html?p=1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>TACA DE VIDRO FANY</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/taca-de-vidro-fany-01-03-14-128-008.html</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jarras, Copos e Xícaras</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html?p=1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GARRAFA DE VIDRO SARZANA</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/garrafa-de-vidro-sarzana-01-03-12-046-006.html</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>159,00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>78,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Jarras, Copos e Xícaras</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html?p=1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TACA DE VIDRO FANY</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/taca-de-vidro-fany-01-03-14-128-006.html</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>59,00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>28,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Jarras, Copos e Xícaras</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html?p=1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>TACA DE VIDRO NICE</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/taca-de-vidro-nice-01-03-14-108-006.html</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>89,00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>44,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Jarras, Copos e Xícaras</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html?p=1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>XICARA DE PORCELANA NICE</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/xicara-de-porcelana-nice-01-03-18-055-004.html</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>48,00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>18,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Jarras, Copos e Xícaras</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html?p=1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MORINGA DE VIDRO EMMA</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/moringa-de-vidro-emma-01-03-12-062-009.html</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>198,00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>78,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Jarras, Copos e Xícaras</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/black-friday/casa/jarras-copos-e-xicaras.html?p=1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>COPO DE CERAMICA GENOVA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://www.souqstore.com.br/copo-de-ceramica-genova-01-03-14-107-006.html</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>39,00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>18,00</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
